--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -735,7 +735,7 @@
     <t>ddccBundle</t>
   </si>
   <si>
-    <t xml:space="preserve">Bundle {https://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocument}
+    <t xml:space="preserve">Bundle {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCDocument}
 </t>
   </si>
   <si>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -459,7 +459,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">value:resource}
+    <t xml:space="preserve">profile:resource.resolve()}
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -459,7 +459,7 @@
     <t>An entry in a bundle resource - will either contain a resource or information about a resource (transactions and history only).</t>
   </si>
   <si>
-    <t xml:space="preserve">profile:resource.resolve()}
+    <t xml:space="preserve">type:resource}
 </t>
   </si>
   <si>
@@ -942,7 +942,7 @@
     <col min="24" max="24" width="168.1875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="49.01171875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="25.36328125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-06T16:40:07+00:00</t>
+    <t>2021-09-07T22:17:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T22:17:02+00:00</t>
+    <t>2021-09-08T17:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:02:38+00:00</t>
+    <t>2021-09-08T17:47:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-08T17:47:26+00:00</t>
+    <t>2021-09-10T17:11:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-10T17:11:50+00:00</t>
+    <t>2021-09-13T04:33:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T04:33:50+00:00</t>
+    <t>2021-09-13T18:22:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-13T18:22:00+00:00</t>
+    <t>2021-09-14T16:43:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T16:43:46+00:00</t>
+    <t>2021-09-14T17:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T17:14:13+00:00</t>
+    <t>2021-09-23T15:43:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-23T15:43:05+00:00</t>
+    <t>2021-10-04T20:34:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T20:34:50+00:00</t>
+    <t>2021-10-04T21:05:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:05:20+00:00</t>
+    <t>2021-10-04T21:17:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T21:17:26+00:00</t>
+    <t>2021-10-06T12:30:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T12:30:04+00:00</t>
+    <t>2021-10-25T19:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T19:36:06+00:00</t>
+    <t>2021-10-25T20:35:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-25T20:35:22+00:00</t>
+    <t>2021-10-27T16:26:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:15:15+00:00</t>
+    <t>2021-11-11T22:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-11T22:17:18+00:00</t>
+    <t>2021-11-12T14:05:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.0.1</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:05:38+00:00</t>
+    <t>2021-11-12T14:18:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
+++ b/StructureDefinition-DDCCSubmitHealthEventResponse.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T14:18:21+00:00</t>
+    <t>2021-11-18T20:40:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
